--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_Q_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2362D634-BC91-4C28-B800-9C650D5A4E01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528194CF-BB29-4E6D-A926-7B85A1F2BC44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" firstSheet="5" activeTab="10" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cash" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -692,51 +692,50 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,11 +1053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,14 +1068,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1099,7 +1098,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -1107,7 +1106,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="10"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -1115,7 +1114,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -1123,7 +1122,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="47"/>
       <c r="D6" s="55"/>
@@ -1131,7 +1130,7 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="50"/>
       <c r="D7" s="49"/>
@@ -1139,7 +1138,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -1147,7 +1146,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="10"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -1155,7 +1154,7 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -1163,7 +1162,7 @@
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="21"/>
       <c r="C11" s="47"/>
       <c r="D11" s="55"/>
@@ -1171,7 +1170,7 @@
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="50"/>
       <c r="D12" s="49"/>
@@ -1179,12 +1178,36 @@
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="5"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="58"/>
       <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1196,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CCF54D-A0F0-45B5-99F2-C8991B8FB2C5}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F4"/>
+      <selection activeCell="A4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,14 +1232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1239,7 +1262,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="19"/>
@@ -1247,12 +1270,108 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="22"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="E4" s="62"/>
       <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1263,11 +1382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C4AED1-7695-41FD-B017-5F81A4D64A60}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A5" sqref="A5:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,37 +1395,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="19"/>
@@ -1314,20 +1433,108 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="3"/>
       <c r="E4" s="59"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
       <c r="B5" s="16"/>
       <c r="C5" s="18"/>
       <c r="D5" s="20"/>
       <c r="E5" s="63"/>
       <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="76"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1338,11 +1545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF1EE1E-49B2-4B79-8417-6EE9F81CF4DA}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,14 +1558,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1381,7 +1588,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -1389,7 +1596,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -1397,7 +1604,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -1405,7 +1612,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -1413,7 +1620,7 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -1421,7 +1628,76 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1432,11 +1708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77C6589-0776-4C78-96A5-E1B41951D631}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F7"/>
+      <selection activeCell="A7" sqref="A7:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,14 +1721,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1475,7 +1751,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="31"/>
       <c r="D3" s="47"/>
@@ -1483,7 +1759,7 @@
       <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
       <c r="D4" s="48"/>
@@ -1491,7 +1767,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="31"/>
       <c r="D5" s="49"/>
@@ -1499,7 +1775,7 @@
       <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="32"/>
       <c r="D6" s="47"/>
@@ -1507,12 +1783,84 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="31"/>
       <c r="D7" s="50"/>
       <c r="E7" s="15"/>
       <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1523,11 +1871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53116AC8-47E1-4842-8429-36089A1FD4D4}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A6" sqref="A6:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,14 +1884,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1566,7 +1914,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="43"/>
@@ -1574,7 +1922,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
       <c r="D4" s="44"/>
@@ -1582,7 +1930,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="45"/>
@@ -1596,6 +1944,86 @@
       <c r="D6" s="46"/>
       <c r="E6" s="41"/>
       <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1606,11 +2034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6965B9-C3A5-4A11-AED1-9BC12941E45B}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,14 +2047,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1649,7 +2077,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="31"/>
@@ -1657,7 +2085,7 @@
       <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
       <c r="D4" s="32"/>
@@ -1665,7 +2093,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="18"/>
       <c r="D5" s="31"/>
@@ -1673,7 +2101,7 @@
       <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="12"/>
       <c r="D6" s="32"/>
@@ -1681,7 +2109,7 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="18"/>
       <c r="D7" s="31"/>
@@ -1689,12 +2117,76 @@
       <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="33"/>
       <c r="E8" s="24"/>
       <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1705,11 +2197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E60BBBD-08B0-4A19-8909-9F921200BF3B}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F4"/>
+      <selection activeCell="A4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,14 +2210,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1748,7 +2240,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="19"/>
@@ -1756,12 +2248,108 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="22"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="E4" s="25"/>
       <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1772,11 +2360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947C160F-45C4-401F-B0C2-C740AAE778B1}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F9"/>
+      <selection activeCell="A9" sqref="A9:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,14 +2373,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1815,7 +2403,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -1823,7 +2411,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -1831,7 +2419,7 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
@@ -1839,7 +2427,7 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -1847,7 +2435,7 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -1855,7 +2443,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -1863,12 +2451,68 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1879,11 +2523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E73E827-2646-40FC-9068-82FCDC4D90D3}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A5" sqref="A5:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,14 +2536,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1922,7 +2566,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="29"/>
@@ -1930,7 +2574,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="14"/>
       <c r="D4" s="10"/>
@@ -1938,12 +2582,100 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="20"/>
       <c r="D5" s="22"/>
       <c r="E5" s="28"/>
       <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1954,11 +2686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE03683-A848-4A1F-923F-80A3E42EDA4B}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,14 +2699,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1997,7 +2729,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
@@ -2005,7 +2737,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
       <c r="D4" s="14"/>
@@ -2013,7 +2745,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="18"/>
       <c r="D5" s="20"/>
@@ -2021,12 +2753,92 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
       <c r="E6" s="28"/>
       <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
